--- a/biology/Botanique/Dipsacales/Dipsacales.xlsx
+++ b/biology/Botanique/Dipsacales/Dipsacales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ordre des Dipsacales regroupe des plantes dicotylédones.
-Dans la classification classique de Cronquist (1981)[1], il comporte 4 familles :
+Dans la classification classique de Cronquist (1981), il comporte 4 familles :
 Adoxaceae
 Caprifoliaceae (famille du chèvrefeuille)
 Dipsacaceae (famille des cardères)
 Valerianaceae
-En classification phylogénétique APG (1998)[2] la composition est :
+En classification phylogénétique APG (1998) la composition est :
 ordre Dipsacales
 : famille Caprifoliaceae
 : famille Diervillaceae
@@ -496,7 +508,7 @@
 : famille Linnaeaceae
 : famille Morinaceae
 : famille Valerianaceae
-En classification phylogénétique APG II (2003)[3] la composition est modifié encore :
+En classification phylogénétique APG II (2003) la composition est modifié encore :
 ordre Dipsacales
 : famille Adoxaceae
 : famille Caprifoliaceae
@@ -506,7 +518,7 @@
 :: [+ famille Morinaceae ]
 :: [+ famille Valerianaceae ]
 NB : "[+ ... ]" = famille optionnelle
-En classification phylogénétique APG III (2009)[4] sa composition est :
+En classification phylogénétique APG III (2009) sa composition est :
 ordre Dipsacales Juss. ex Bercht. &amp; J.Presl (1820)
 : famille Adoxaceae E.Mey. (1839)
 : famille Caprifoliaceae Juss. (1789) [incluant Diervillaceae Pyck, Dipsacaceae Juss., Linnaeaceae Backlund, Morinaceae Raf., Valerianaceae Batsch]
